--- a/Data/Forecasts/IDA1/2023-12-05_exo[].xlsx
+++ b/Data/Forecasts/IDA1/2023-12-05_exo[].xlsx
@@ -454,7 +454,7 @@
         <v>45265</v>
       </c>
       <c r="B2" t="n">
-        <v>76.12821197509766</v>
+        <v>72.14973449707031</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>45265.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>83.98649597167969</v>
+        <v>79.62406921386719</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>45265.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>80.11299133300781</v>
+        <v>79.27431488037109</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45265.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>72.80671691894531</v>
+        <v>70.43294525146484</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45265.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>76.38057708740234</v>
+        <v>73.15251159667969</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45265.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>79.15640258789062</v>
+        <v>70.60429382324219</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45265.125</v>
       </c>
       <c r="B8" t="n">
-        <v>79.89873504638672</v>
+        <v>73.05410003662109</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45265.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>79.69561004638672</v>
+        <v>69.86053466796875</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45265.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>87.58626556396484</v>
+        <v>74.09227752685547</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45265.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>86.61840057373047</v>
+        <v>72.92491149902344</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45265.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>83.68596649169922</v>
+        <v>75.84742736816406</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45265.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>85.42563629150391</v>
+        <v>80.71454620361328</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45265.25</v>
       </c>
       <c r="B14" t="n">
-        <v>97.77342987060547</v>
+        <v>86.64016723632812</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45265.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>95.61981201171875</v>
+        <v>90.40223693847656</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45265.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>114.8121337890625</v>
+        <v>111.0016326904297</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45265.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>144.2255401611328</v>
+        <v>132.1978454589844</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45265.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>141.7263641357422</v>
+        <v>126.7549514770508</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45265.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>155.8718109130859</v>
+        <v>138.9434967041016</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45265.375</v>
       </c>
       <c r="B20" t="n">
-        <v>150.0440368652344</v>
+        <v>137.4134216308594</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45265.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>149.4265747070312</v>
+        <v>141.7583770751953</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45265.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>155.1984710693359</v>
+        <v>146.3133239746094</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45265.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>151.1304168701172</v>
+        <v>140.6443176269531</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45265.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>156.1028442382812</v>
+        <v>148.7510375976562</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45265.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>147.4328460693359</v>
+        <v>145.7429351806641</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>45265.5</v>
       </c>
       <c r="B26" t="n">
-        <v>137.3189544677734</v>
+        <v>144.8786163330078</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>45265.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>138.8899536132812</v>
+        <v>146.5385589599609</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>45265.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>132.9791717529297</v>
+        <v>136.9938049316406</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>45265.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>126.3349990844727</v>
+        <v>131.2630157470703</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>45265.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>130.1047973632812</v>
+        <v>130.9184112548828</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>45265.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>134.8092041015625</v>
+        <v>135.4780426025391</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>45265.625</v>
       </c>
       <c r="B32" t="n">
-        <v>136.3421478271484</v>
+        <v>137.4062194824219</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>45265.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>166.5602569580078</v>
+        <v>164.2551574707031</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>45265.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>159.5757598876953</v>
+        <v>153.3765258789062</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>45265.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>184.5497131347656</v>
+        <v>180.8703918457031</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>45265.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>171.3967590332031</v>
+        <v>171.3769989013672</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>45265.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>175.6125946044922</v>
+        <v>174.994873046875</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>45265.75</v>
       </c>
       <c r="B38" t="n">
-        <v>155.7738800048828</v>
+        <v>154.9044494628906</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>45265.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>138.8939361572266</v>
+        <v>142.5528564453125</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>45265.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>134.8209381103516</v>
+        <v>143.8388977050781</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>45265.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>113.1528015136719</v>
+        <v>127.1858978271484</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>45265.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>107.0441741943359</v>
+        <v>120.0325698852539</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>45265.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>88.77774810791016</v>
+        <v>104.9885787963867</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>45265.875</v>
       </c>
       <c r="B44" t="n">
-        <v>110.9300918579102</v>
+        <v>114.2271118164062</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>45265.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>99.23511505126953</v>
+        <v>100.7412414550781</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>45265.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>106.8173446655273</v>
+        <v>104.1725921630859</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>45265.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>95.93848419189453</v>
+        <v>89.85700988769531</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>45265.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>99.35615539550781</v>
+        <v>95.99959564208984</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>45265.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>102.4141006469727</v>
+        <v>94.88642120361328</v>
       </c>
     </row>
   </sheetData>
